--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="BỈM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>SỔ THEO DÕI ĐƠN HÀNG NHẬP SỮA VINAMILK</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Moony</t>
   </si>
 </sst>
 </file>
@@ -273,8 +288,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -496,24 +511,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,25 +534,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -550,83 +556,47 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -639,47 +609,123 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,46 +744,42 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1020,464 +1062,609 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="16.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="73">
         <v>44141</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="32">
         <v>180000</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="32">
         <f>E7*F7</f>
         <v>540000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
         <v>340000</v>
       </c>
-      <c r="G8" s="33">
-        <f t="shared" ref="G8:G23" si="0">E8*F8</f>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G31" si="0">E8*F8</f>
         <v>340000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="40">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
         <v>340000</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>340000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="23">
         <v>3</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="24">
         <v>200000</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="26">
         <v>200000</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="26">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="36">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26">
         <v>110000</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="26">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="36">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26">
         <v>75000</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="36">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26">
         <v>190000</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="40">
-        <v>1</v>
-      </c>
-      <c r="F15" s="41">
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28">
         <v>180000</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="28">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="42" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="29">
         <v>3</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="30">
         <v>195000</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
         <v>585000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="36">
-        <v>1</v>
-      </c>
-      <c r="F17" s="37">
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26">
         <v>195000</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="E18" s="25">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
         <v>200000</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="25">
         <v>2</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="26">
         <v>200000</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="26">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="36">
-        <v>1</v>
-      </c>
-      <c r="F20" s="37">
+      <c r="E20" s="25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="26">
         <v>275000</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="26">
         <f t="shared" si="0"/>
         <v>275000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="25">
         <v>2</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="26">
         <v>110000</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="26">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="27">
         <v>2</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="28">
         <v>85000</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="28">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="33">
         <v>44165</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="18">
         <v>3</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="32">
         <v>340000</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="32">
         <f t="shared" si="0"/>
         <v>1020000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="111">
+        <v>44172</v>
+      </c>
+      <c r="B24" s="105"/>
+      <c r="C24" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="32">
+        <v>340000</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="32">
+        <v>340000</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="32">
+        <v>340000</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="F27" s="32">
+        <v>340000</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="0"/>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="18">
+        <v>2</v>
+      </c>
+      <c r="F28" s="32">
+        <v>350000</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="112"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="32">
+        <v>350000</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="112"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="32">
+        <v>350000</v>
+      </c>
+      <c r="G30" s="32">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="113"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="32">
+        <v>350000</v>
+      </c>
+      <c r="G31" s="32">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="101">
-        <f>SUM(E7:E23)</f>
-        <v>29</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="100">
-        <f>SUM(G7:G23)</f>
-        <v>5840000</v>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="66">
+        <f>SUM(E7:E31)</f>
+        <v>45</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="65">
+        <f>SUM(G7:G31)</f>
+        <v>11360000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="A24:D24"/>
+  <mergeCells count="18">
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A3:G3"/>
@@ -1486,6 +1673,15 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A7:A22"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.39" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1502,520 +1698,520 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="68" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="73" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="13" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="A2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="74" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="91">
         <v>44141</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="87">
-        <v>1</v>
-      </c>
-      <c r="F7" s="88">
+      <c r="E7" s="56">
+        <v>1</v>
+      </c>
+      <c r="F7" s="57">
         <v>430000</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="57">
         <f>E7*F7</f>
         <v>430000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="97">
-        <v>1</v>
-      </c>
-      <c r="F8" s="98">
+      <c r="E8" s="62">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63">
         <v>412000</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="63">
         <f t="shared" ref="G8:G28" si="0">E8*F8</f>
         <v>412000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="97">
-        <v>1</v>
-      </c>
-      <c r="F9" s="98">
+      <c r="E9" s="62">
+        <v>1</v>
+      </c>
+      <c r="F9" s="63">
         <v>360000</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="63">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="97">
-        <v>1</v>
-      </c>
-      <c r="F10" s="98">
+      <c r="E10" s="62">
+        <v>1</v>
+      </c>
+      <c r="F10" s="63">
         <v>310000</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="63">
         <f t="shared" si="0"/>
         <v>310000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="93">
-        <v>1</v>
-      </c>
-      <c r="F11" s="94">
+      <c r="E11" s="59">
+        <v>1</v>
+      </c>
+      <c r="F11" s="60">
         <v>205000</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="60">
         <f t="shared" si="0"/>
         <v>205000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="53">
         <v>2</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="46">
         <v>445000</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="46">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="85" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="87">
-        <v>1</v>
-      </c>
-      <c r="F13" s="88">
+      <c r="E13" s="56">
+        <v>1</v>
+      </c>
+      <c r="F13" s="57">
         <v>300000</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="57">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="93">
-        <v>1</v>
-      </c>
-      <c r="F14" s="94">
+      <c r="E14" s="59">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60">
         <v>300000</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="60">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="85" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="87">
-        <v>1</v>
-      </c>
-      <c r="F15" s="88">
+      <c r="E15" s="56">
+        <v>1</v>
+      </c>
+      <c r="F15" s="57">
         <v>220000</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="57">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="97">
-        <v>1</v>
-      </c>
-      <c r="F16" s="98">
+      <c r="E16" s="62">
+        <v>1</v>
+      </c>
+      <c r="F16" s="63">
         <v>220000</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="63">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="97">
-        <v>1</v>
-      </c>
-      <c r="F17" s="98">
+      <c r="E17" s="62">
+        <v>1</v>
+      </c>
+      <c r="F17" s="63">
         <v>280000</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="63">
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="97">
-        <v>1</v>
-      </c>
-      <c r="F18" s="98">
+      <c r="E18" s="62">
+        <v>1</v>
+      </c>
+      <c r="F18" s="63">
         <v>280000</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="63">
         <f t="shared" si="0"/>
         <v>280000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="97">
-        <v>1</v>
-      </c>
-      <c r="F19" s="98">
+      <c r="E19" s="62">
+        <v>1</v>
+      </c>
+      <c r="F19" s="63">
         <v>130000</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="63">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="93">
-        <v>1</v>
-      </c>
-      <c r="F20" s="94">
+      <c r="E20" s="59">
+        <v>1</v>
+      </c>
+      <c r="F20" s="60">
         <v>130000</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="60">
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="63" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="53">
         <v>2</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="46">
         <v>275000</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="46">
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="85" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="87">
-        <v>1</v>
-      </c>
-      <c r="F22" s="88">
+      <c r="E22" s="56">
+        <v>1</v>
+      </c>
+      <c r="F22" s="57">
         <v>235000</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>235000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="93">
-        <v>1</v>
-      </c>
-      <c r="F23" s="94">
+      <c r="E23" s="59">
+        <v>1</v>
+      </c>
+      <c r="F23" s="60">
         <v>230000</v>
       </c>
-      <c r="G23" s="94">
+      <c r="G23" s="60">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="85" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="87">
-        <v>1</v>
-      </c>
-      <c r="F24" s="88">
+      <c r="E24" s="56">
+        <v>1</v>
+      </c>
+      <c r="F24" s="57">
         <v>80000</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="57">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="97">
-        <v>1</v>
-      </c>
-      <c r="F25" s="98">
+      <c r="E25" s="62">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63">
         <v>80000</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="63">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="96" t="s">
+      <c r="A26" s="91"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="97">
-        <v>1</v>
-      </c>
-      <c r="F26" s="98">
+      <c r="E26" s="62">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63">
         <v>80000</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="63">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="97">
-        <v>1</v>
-      </c>
-      <c r="F27" s="98">
+      <c r="E27" s="62">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63">
         <v>80000</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="63">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="93">
-        <v>1</v>
-      </c>
-      <c r="F28" s="94">
+      <c r="E28" s="59">
+        <v>1</v>
+      </c>
+      <c r="F28" s="60">
         <v>80000</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="60">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
@@ -2024,61 +2220,66 @@
       <c r="A29" s="83">
         <v>44163</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85" t="s">
+      <c r="B29" s="85"/>
+      <c r="C29" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="56">
         <v>3</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="57">
         <v>200000</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="57">
         <f t="shared" ref="G29:G30" si="1">E29*F29</f>
         <v>600000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="93">
-        <v>1</v>
-      </c>
-      <c r="F30" s="94">
+      <c r="E30" s="59">
+        <v>1</v>
+      </c>
+      <c r="F30" s="60">
         <v>200000</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="60">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="75">
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="53">
         <f>SUM(E7:E30)</f>
         <v>28</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67">
+      <c r="F31" s="46"/>
+      <c r="G31" s="46">
         <f>SUM(G7:G30)</f>
         <v>6682000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -2091,11 +2292,6 @@
     <mergeCell ref="A7:A28"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
@@ -2108,688 +2304,688 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="72" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="55"/>
-    <col min="6" max="6" width="13.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="13" style="51" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="40"/>
+    <col min="6" max="6" width="13.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61" t="s">
+      <c r="D5" s="93"/>
+      <c r="E5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="95" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="99">
         <v>44141</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="55">
         <v>3</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="57">
         <v>610000</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="57">
         <f>E7*F7</f>
         <v>1830000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="58">
         <v>2</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="60">
         <v>650000</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="60">
         <f t="shared" ref="G8:G36" si="0">E8*F8</f>
         <v>1300000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="85" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="55">
         <v>3</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="57">
         <v>580000</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="57">
         <f t="shared" si="0"/>
         <v>1740000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="58">
         <v>3</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="60">
         <v>480000</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="60">
         <f t="shared" si="0"/>
         <v>1440000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="63" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="45">
         <v>3</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="46">
         <v>485000</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="46">
         <f t="shared" si="0"/>
         <v>1455000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="85" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="86">
-        <v>1</v>
-      </c>
-      <c r="F12" s="88">
+      <c r="E12" s="55">
+        <v>1</v>
+      </c>
+      <c r="F12" s="57">
         <v>560000</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="57">
         <f t="shared" si="0"/>
         <v>560000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="61">
         <v>3</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="63">
         <v>560000</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="63">
         <f t="shared" si="0"/>
         <v>1680000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="58">
         <v>3</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="60">
         <v>520000</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="60">
         <f t="shared" si="0"/>
         <v>1560000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="63" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="45">
         <v>3</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="46">
         <v>470000</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="46">
         <f t="shared" si="0"/>
         <v>1410000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="85" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="55">
         <v>3</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="57">
         <v>380000</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="57">
         <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="96">
-        <v>1</v>
-      </c>
-      <c r="F17" s="98">
+      <c r="E17" s="61">
+        <v>1</v>
+      </c>
+      <c r="F17" s="63">
         <v>400000</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="63">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="61">
         <v>2</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="63">
         <v>400000</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="63">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="58">
         <v>3</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="60">
         <v>400000</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="60">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="85" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="55">
         <v>2</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="57">
         <v>750000</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="57">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="92">
-        <v>1</v>
-      </c>
-      <c r="F21" s="94">
+      <c r="E21" s="58">
+        <v>1</v>
+      </c>
+      <c r="F21" s="60">
         <v>750000</v>
       </c>
-      <c r="G21" s="94">
+      <c r="G21" s="60">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="63" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="45">
         <v>3</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="46">
         <v>550000</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="46">
         <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="85" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="55">
         <v>2</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="57">
         <v>650000</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="57">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="96">
-        <v>1</v>
-      </c>
-      <c r="F24" s="98">
+      <c r="E24" s="61">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63">
         <v>620000</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="63">
         <f t="shared" si="0"/>
         <v>620000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="96">
-        <v>1</v>
-      </c>
-      <c r="F25" s="98">
+      <c r="E25" s="61">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63">
         <v>500000</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="63">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="96" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="96">
-        <v>1</v>
-      </c>
-      <c r="F26" s="98">
+      <c r="E26" s="61">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63">
         <v>500000</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="63">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="92">
-        <v>1</v>
-      </c>
-      <c r="F27" s="94">
+      <c r="E27" s="58">
+        <v>1</v>
+      </c>
+      <c r="F27" s="60">
         <v>500000</v>
       </c>
-      <c r="G27" s="94">
+      <c r="G27" s="60">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="85" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="86">
-        <v>1</v>
-      </c>
-      <c r="F28" s="88">
+      <c r="E28" s="55">
+        <v>1</v>
+      </c>
+      <c r="F28" s="57">
         <v>542000</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="57">
         <f t="shared" si="0"/>
         <v>542000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="96">
-        <v>1</v>
-      </c>
-      <c r="F29" s="98">
+      <c r="E29" s="61">
+        <v>1</v>
+      </c>
+      <c r="F29" s="63">
         <v>495000</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="63">
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="58">
         <v>3</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="60">
         <v>495000</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="60">
         <f t="shared" si="0"/>
         <v>1485000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="85" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="55">
         <v>3</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="57">
         <v>485000</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="57">
         <f t="shared" si="0"/>
         <v>1455000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="61">
         <v>3</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="63">
         <v>485000</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="63">
         <f t="shared" si="0"/>
         <v>1455000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="58">
         <v>2</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="60">
         <v>485000</v>
       </c>
-      <c r="G33" s="94">
+      <c r="G33" s="60">
         <f t="shared" si="0"/>
         <v>970000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="63" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="64">
-        <v>1</v>
-      </c>
-      <c r="F34" s="67">
+      <c r="E34" s="45">
+        <v>1</v>
+      </c>
+      <c r="F34" s="46">
         <v>690000</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="46">
         <f t="shared" si="0"/>
         <v>690000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="63" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="45">
         <v>3</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="46">
         <v>360000</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="46">
         <f t="shared" si="0"/>
         <v>1080000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="76">
+      <c r="A36" s="54">
         <v>44142</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="64">
-        <v>1</v>
-      </c>
-      <c r="F36" s="67">
+      <c r="E36" s="45">
+        <v>1</v>
+      </c>
+      <c r="F36" s="46">
         <v>700000</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="46">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
@@ -2801,23 +2997,23 @@
       <c r="B37" s="102"/>
       <c r="C37" s="102"/>
       <c r="D37" s="102"/>
-      <c r="E37" s="103">
+      <c r="E37" s="67">
         <f>SUM(E7:E36)</f>
         <v>63</v>
       </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104">
+      <c r="F37" s="68"/>
+      <c r="G37" s="68">
         <f>SUM(G7:G36)</f>
         <v>32707000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:B35"/>
-    <mergeCell ref="A7:A35"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C16:C19"/>
@@ -2825,11 +3021,11 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B7:B35"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
@@ -2849,64 +3045,64 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BỈM" sheetId="1" r:id="rId1"/>
     <sheet name="SỮA VINAMILK" sheetId="2" r:id="rId2"/>
-    <sheet name="SỮA NGOẠI" sheetId="3" r:id="rId3"/>
-    <sheet name="SỮA CỎ" sheetId="4" r:id="rId4"/>
+    <sheet name="SP khác" sheetId="5" r:id="rId3"/>
+    <sheet name="SỮA NGOẠI" sheetId="3" r:id="rId4"/>
+    <sheet name="SỮA CỎ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -280,6 +281,12 @@
   </si>
   <si>
     <t>Moony</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI ĐƠN HÀNG NHẬP SẢN PHẨM KHÁC</t>
+  </si>
+  <si>
+    <t>NhÂpj cùng thanh hà</t>
   </si>
 </sst>
 </file>
@@ -511,7 +518,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,27 +652,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,6 +667,66 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,87 +745,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1064,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A31"/>
     </sheetView>
   </sheetViews>
@@ -1080,13 +1091,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="9"/>
@@ -1120,15 +1131,15 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1140,44 +1151,44 @@
       <c r="P3" s="17"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="87">
         <v>44141</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="83" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -1198,9 +1209,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1218,9 +1229,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
@@ -1236,9 +1247,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="69" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -1256,9 +1267,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
@@ -1274,9 +1285,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="25" t="s">
         <v>21</v>
       </c>
@@ -1292,9 +1303,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
@@ -1310,9 +1321,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1328,9 +1339,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="27" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1357,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -1366,9 +1377,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="25" t="s">
         <v>20</v>
       </c>
@@ -1384,9 +1395,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="25" t="s">
         <v>26</v>
       </c>
@@ -1402,9 +1413,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="25" t="s">
         <v>27</v>
       </c>
@@ -1420,9 +1431,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="25" t="s">
         <v>28</v>
       </c>
@@ -1438,9 +1449,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="25" t="s">
         <v>29</v>
       </c>
@@ -1456,9 +1467,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
@@ -1496,11 +1507,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="111">
+      <c r="A24" s="80">
         <v>44172</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="108" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1518,9 +1529,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="18" t="s">
         <v>84</v>
       </c>
@@ -1536,9 +1547,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="109"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="18" t="s">
         <v>81</v>
       </c>
@@ -1554,9 +1565,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="110"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="18" t="s">
         <v>82</v>
       </c>
@@ -1572,9 +1583,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="74" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -1592,9 +1603,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="109"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="18" t="s">
         <v>84</v>
       </c>
@@ -1610,9 +1621,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="109"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="18" t="s">
         <v>81</v>
       </c>
@@ -1628,9 +1639,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="110"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="18" t="s">
         <v>82</v>
       </c>
@@ -1646,12 +1657,12 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="66">
         <f>SUM(E7:E31)</f>
         <v>45</v>
@@ -1664,6 +1675,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A7:A22"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:D5"/>
@@ -1680,8 +1693,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A7:A22"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.39" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1709,13 +1720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -1749,15 +1760,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -1769,47 +1780,47 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="103">
         <v>44141</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -1827,9 +1838,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="89"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="61" t="s">
         <v>33</v>
       </c>
@@ -1845,9 +1856,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="89"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="61" t="s">
         <v>34</v>
       </c>
@@ -1863,9 +1874,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="89"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="61" t="s">
         <v>35</v>
       </c>
@@ -1881,9 +1892,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="58" t="s">
         <v>36</v>
       </c>
@@ -1899,8 +1910,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="44" t="s">
         <v>37</v>
       </c>
@@ -1919,9 +1930,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="81" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="94" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -1939,9 +1950,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="58" t="s">
         <v>33</v>
       </c>
@@ -1957,9 +1968,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="81" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -1977,9 +1988,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="61" t="s">
         <v>33</v>
       </c>
@@ -1995,9 +2006,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="89"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="61" t="s">
         <v>34</v>
       </c>
@@ -2013,9 +2024,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="89"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
@@ -2031,9 +2042,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="89"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="61" t="s">
         <v>42</v>
       </c>
@@ -2049,9 +2060,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="82"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="58" t="s">
         <v>36</v>
       </c>
@@ -2067,8 +2078,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="44" t="s">
         <v>40</v>
       </c>
@@ -2087,9 +2098,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -2107,9 +2118,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="58" t="s">
         <v>33</v>
       </c>
@@ -2125,9 +2136,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="103"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="94" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="55" t="s">
@@ -2145,9 +2156,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="89"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="61" t="s">
         <v>45</v>
       </c>
@@ -2163,9 +2174,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="89"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="61" t="s">
         <v>46</v>
       </c>
@@ -2181,9 +2192,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="89"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="61" t="s">
         <v>47</v>
       </c>
@@ -2199,9 +2210,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="58" t="s">
         <v>48</v>
       </c>
@@ -2217,11 +2228,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="83">
+      <c r="A29" s="96">
         <v>44163</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="81" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="94" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2239,9 +2250,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="58" t="s">
         <v>33</v>
       </c>
@@ -2257,12 +2268,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="53">
         <f>SUM(E7:E30)</f>
         <v>28</v>
@@ -2275,11 +2286,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -2294,6 +2300,11 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2302,10 +2313,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="115">
+        <v>44173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2321,13 +2436,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -2361,15 +2476,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -2381,47 +2496,47 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="104" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="109">
         <v>44141</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="94" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -2439,9 +2554,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="58" t="s">
         <v>51</v>
       </c>
@@ -2457,9 +2572,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="94" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2477,9 +2592,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="58" t="s">
         <v>50</v>
       </c>
@@ -2495,8 +2610,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="44" t="s">
         <v>53</v>
       </c>
@@ -2515,9 +2630,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="81" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="94" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="55" t="s">
@@ -2535,9 +2650,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
@@ -2553,9 +2668,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="58" t="s">
         <v>58</v>
       </c>
@@ -2571,8 +2686,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
@@ -2591,9 +2706,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="81" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="94" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="55" t="s">
@@ -2611,9 +2726,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="89"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
@@ -2629,9 +2744,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="89"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="61" t="s">
         <v>58</v>
       </c>
@@ -2647,9 +2762,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="58" t="s">
         <v>62</v>
       </c>
@@ -2665,9 +2780,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="81" t="s">
+      <c r="A20" s="110"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="94" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="55" t="s">
@@ -2685,9 +2800,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="82"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="58" t="s">
         <v>58</v>
       </c>
@@ -2703,8 +2818,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="44" t="s">
         <v>64</v>
       </c>
@@ -2723,9 +2838,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="81" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="94" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -2743,9 +2858,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="89"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="61" t="s">
         <v>68</v>
       </c>
@@ -2761,9 +2876,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="89"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="61" t="s">
         <v>70</v>
       </c>
@@ -2779,9 +2894,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="89"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
@@ -2797,9 +2912,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="58" t="s">
         <v>72</v>
       </c>
@@ -2815,9 +2930,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="81" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="94" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="55" t="s">
@@ -2835,9 +2950,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="89"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
@@ -2853,9 +2968,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="58" t="s">
         <v>57</v>
       </c>
@@ -2871,9 +2986,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="81" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="94" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="55" t="s">
@@ -2891,9 +3006,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="89"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="61" t="s">
         <v>57</v>
       </c>
@@ -2909,9 +3024,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="82"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="58" t="s">
         <v>58</v>
       </c>
@@ -2927,8 +3042,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="44" t="s">
         <v>76</v>
       </c>
@@ -2947,8 +3062,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="98"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="44" t="s">
         <v>77</v>
       </c>
@@ -2991,12 +3106,12 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
       <c r="E37" s="67">
         <f>SUM(E7:E36)</f>
         <v>63</v>
@@ -3009,11 +3124,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C16:C19"/>
@@ -3023,9 +3133,14 @@
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="B7:B35"/>
     <mergeCell ref="A7:A35"/>
-    <mergeCell ref="A3:G3"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
@@ -3034,24 +3149,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -3085,29 +3206,69 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BỈM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -286,7 +286,13 @@
     <t>SỔ THEO DÕI ĐƠN HÀNG NHẬP SẢN PHẨM KHÁC</t>
   </si>
   <si>
-    <t>NhÂpj cùng thanh hà</t>
+    <t>XL48</t>
+  </si>
+  <si>
+    <t>XL34</t>
+  </si>
+  <si>
+    <t>Kid Essentiels</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -652,6 +658,36 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,71 +730,59 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,16 +805,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1073,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1091,13 +1105,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="9"/>
@@ -1131,15 +1145,15 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1151,44 +1165,44 @@
       <c r="P3" s="17"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="83" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="76">
         <v>44141</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -1209,9 +1223,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="83" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1224,14 +1238,14 @@
         <v>340000</v>
       </c>
       <c r="G8" s="24">
-        <f t="shared" ref="G8:G31" si="0">E8*F8</f>
+        <f t="shared" ref="G8:G32" si="0">E8*F8</f>
         <v>340000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
@@ -1247,9 +1261,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="83" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="73" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -1267,9 +1281,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
@@ -1285,9 +1299,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="25" t="s">
         <v>21</v>
       </c>
@@ -1303,9 +1317,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
@@ -1321,9 +1335,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="25" t="s">
         <v>23</v>
       </c>
@@ -1339,9 +1353,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="27" t="s">
         <v>24</v>
       </c>
@@ -1357,9 +1371,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -1377,9 +1391,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="25" t="s">
         <v>20</v>
       </c>
@@ -1395,9 +1409,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="25" t="s">
         <v>26</v>
       </c>
@@ -1413,9 +1427,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="25" t="s">
         <v>27</v>
       </c>
@@ -1431,9 +1445,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="25" t="s">
         <v>28</v>
       </c>
@@ -1449,9 +1463,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="25" t="s">
         <v>29</v>
       </c>
@@ -1467,9 +1481,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="27" t="s">
         <v>30</v>
       </c>
@@ -1507,11 +1521,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="80">
+      <c r="A24" s="90">
         <v>44172</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1529,9 +1543,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="18" t="s">
         <v>84</v>
       </c>
@@ -1547,9 +1561,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="75"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="18" t="s">
         <v>81</v>
       </c>
@@ -1565,9 +1579,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="18" t="s">
         <v>82</v>
       </c>
@@ -1583,9 +1597,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="74" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="84" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -1603,9 +1617,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="75"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="18" t="s">
         <v>84</v>
       </c>
@@ -1621,9 +1635,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="18" t="s">
         <v>81</v>
       </c>
@@ -1639,9 +1653,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="76"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="18" t="s">
         <v>82</v>
       </c>
@@ -1657,27 +1671,73 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="71">
+        <v>44180</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="18">
+        <v>3</v>
+      </c>
+      <c r="F32" s="32">
+        <v>275000</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="0"/>
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
+        <v>44182</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="18">
+        <v>4</v>
+      </c>
+      <c r="F33" s="32">
+        <v>195000</v>
+      </c>
+      <c r="G33" s="32">
+        <f>E33*F33</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="66">
-        <f>SUM(E7:E31)</f>
-        <v>45</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="65">
-        <f>SUM(G7:G31)</f>
-        <v>11360000</v>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="66">
+        <f>SUM(E7:E33)</f>
+        <v>52</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="65">
+        <f>SUM(G7:G33)</f>
+        <v>12965000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C22"/>
     <mergeCell ref="B7:B22"/>
     <mergeCell ref="A7:A22"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A3:G3"/>
@@ -1691,8 +1751,6 @@
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C22"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.39" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1703,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1720,13 +1778,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -1760,15 +1818,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -1780,44 +1838,44 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="103">
+      <c r="A7" s="104">
         <v>44141</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="94" t="s">
@@ -1838,9 +1896,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="61" t="s">
         <v>33</v>
       </c>
@@ -1856,9 +1914,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="101"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="61" t="s">
         <v>34</v>
       </c>
@@ -1874,9 +1932,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="101"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="61" t="s">
         <v>35</v>
       </c>
@@ -1892,8 +1950,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="95"/>
       <c r="D11" s="58" t="s">
         <v>36</v>
@@ -1910,8 +1968,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="44" t="s">
         <v>37</v>
       </c>
@@ -1930,8 +1988,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="94" t="s">
         <v>38</v>
       </c>
@@ -1950,8 +2008,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="95"/>
       <c r="D14" s="58" t="s">
         <v>33</v>
@@ -1968,8 +2026,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="94" t="s">
         <v>39</v>
       </c>
@@ -1988,9 +2046,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="101"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="61" t="s">
         <v>33</v>
       </c>
@@ -2006,9 +2064,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="101"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="61" t="s">
         <v>34</v>
       </c>
@@ -2024,9 +2082,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="101"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
@@ -2042,9 +2100,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="101"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="61" t="s">
         <v>42</v>
       </c>
@@ -2060,8 +2118,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="95"/>
       <c r="D20" s="58" t="s">
         <v>36</v>
@@ -2078,8 +2136,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="44" t="s">
         <v>40</v>
       </c>
@@ -2098,8 +2156,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="94" t="s">
         <v>41</v>
       </c>
@@ -2118,8 +2176,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="95"/>
       <c r="D23" s="58" t="s">
         <v>33</v>
@@ -2136,8 +2194,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="94" t="s">
         <v>43</v>
       </c>
@@ -2156,9 +2214,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="101"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="61" t="s">
         <v>45</v>
       </c>
@@ -2174,9 +2232,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="101"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="61" t="s">
         <v>46</v>
       </c>
@@ -2192,9 +2250,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="101"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="61" t="s">
         <v>47</v>
       </c>
@@ -2210,8 +2268,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="95"/>
       <c r="D28" s="58" t="s">
         <v>48</v>
@@ -2268,12 +2326,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="53">
         <f>SUM(E7:E30)</f>
         <v>28</v>
@@ -2286,6 +2344,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -2300,11 +2363,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2313,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,13 +2384,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -2348,57 +2406,49 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="115">
-        <v>44173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2417,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2436,13 +2486,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -2476,15 +2526,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -2496,44 +2546,44 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="115">
         <v>44141</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="94" t="s">
@@ -2554,8 +2604,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="95"/>
       <c r="D8" s="58" t="s">
         <v>51</v>
@@ -2572,8 +2622,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="94" t="s">
         <v>52</v>
       </c>
@@ -2592,8 +2642,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="95"/>
       <c r="D10" s="58" t="s">
         <v>50</v>
@@ -2610,8 +2660,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="44" t="s">
         <v>53</v>
       </c>
@@ -2630,8 +2680,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="94" t="s">
         <v>55</v>
       </c>
@@ -2650,9 +2700,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="101"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
@@ -2668,8 +2718,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="95"/>
       <c r="D14" s="58" t="s">
         <v>58</v>
@@ -2686,8 +2736,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="107"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
@@ -2706,8 +2756,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="94" t="s">
         <v>60</v>
       </c>
@@ -2726,9 +2776,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="101"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
@@ -2744,9 +2794,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="101"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="61" t="s">
         <v>58</v>
       </c>
@@ -2762,8 +2812,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="107"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="95"/>
       <c r="D19" s="58" t="s">
         <v>62</v>
@@ -2780,8 +2830,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="94" t="s">
         <v>63</v>
       </c>
@@ -2800,8 +2850,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="107"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="95"/>
       <c r="D21" s="58" t="s">
         <v>58</v>
@@ -2818,8 +2868,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="107"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="44" t="s">
         <v>64</v>
       </c>
@@ -2838,8 +2888,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="107"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="94" t="s">
         <v>66</v>
       </c>
@@ -2858,9 +2908,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="101"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="61" t="s">
         <v>68</v>
       </c>
@@ -2876,9 +2926,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="101"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="61" t="s">
         <v>70</v>
       </c>
@@ -2894,9 +2944,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="101"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
@@ -2912,8 +2962,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="95"/>
       <c r="D27" s="58" t="s">
         <v>72</v>
@@ -2930,8 +2980,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="94" t="s">
         <v>73</v>
       </c>
@@ -2950,9 +3000,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="101"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
@@ -2968,8 +3018,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="95"/>
       <c r="D30" s="58" t="s">
         <v>57</v>
@@ -2986,8 +3036,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="94" t="s">
         <v>75</v>
       </c>
@@ -3006,9 +3056,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="110"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="101"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="61" t="s">
         <v>57</v>
       </c>
@@ -3024,8 +3074,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="110"/>
-      <c r="B33" s="107"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="95"/>
       <c r="D33" s="58" t="s">
         <v>58</v>
@@ -3042,8 +3092,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="44" t="s">
         <v>76</v>
       </c>
@@ -3062,8 +3112,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="44" t="s">
         <v>77</v>
       </c>
@@ -3106,25 +3156,140 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="115">
+        <v>44538</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="45">
+        <v>1</v>
+      </c>
+      <c r="E37" s="45">
+        <v>2</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="116"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="45">
+        <v>2</v>
+      </c>
+      <c r="E38" s="45">
+        <v>2</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="116"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="45">
+        <v>3</v>
+      </c>
+      <c r="E39" s="45">
+        <v>2</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="116"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="45">
+        <v>2</v>
+      </c>
+      <c r="E40" s="45">
+        <v>2</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45">
+        <v>2</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="54"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="67">
-        <f>SUM(E7:E36)</f>
-        <v>63</v>
-      </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68">
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="67">
+        <f>SUM(E7:E41)</f>
+        <v>73</v>
+      </c>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68">
         <f>SUM(G7:G36)</f>
         <v>32707000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A37:D37"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C21"/>
@@ -3135,14 +3300,9 @@
     <mergeCell ref="A7:A35"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A37:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3154,7 +3314,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,13 +3326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
@@ -3206,69 +3366,69 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/SHOWROOM/NHẬP HÀNG_SHOWROOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="BỈM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="104">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -293,6 +293,48 @@
   </si>
   <si>
     <t>Kid Essentiels</t>
+  </si>
+  <si>
+    <t>Nan nga</t>
+  </si>
+  <si>
+    <t>Pediasure</t>
+  </si>
+  <si>
+    <t>úc</t>
+  </si>
+  <si>
+    <t>mỹ</t>
+  </si>
+  <si>
+    <t>Sữa non hàn</t>
+  </si>
+  <si>
+    <t>Thường</t>
+  </si>
+  <si>
+    <t>Chuyển từ Quỳnh Trang</t>
+  </si>
+  <si>
+    <t>Núm cổ rộng</t>
+  </si>
+  <si>
+    <t>Bình pp su</t>
+  </si>
+  <si>
+    <t>180Ml</t>
+  </si>
+  <si>
+    <t>Bình tập uống nước</t>
+  </si>
+  <si>
+    <t>Ty ngậm</t>
+  </si>
+  <si>
+    <t>240Ml</t>
+  </si>
+  <si>
+    <t>Sữa Hà Tuyên</t>
   </si>
 </sst>
 </file>
@@ -679,6 +721,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,8 +775,17 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,31 +805,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1089,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1105,13 +1147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="9"/>
@@ -1145,15 +1187,15 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1165,41 +1207,41 @@
       <c r="P3" s="17"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+      <c r="A7" s="77">
         <v>44141</v>
       </c>
       <c r="B7" s="73" t="s">
@@ -1223,7 +1265,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="74"/>
       <c r="C8" s="73" t="s">
         <v>15</v>
@@ -1243,7 +1285,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="74"/>
       <c r="C9" s="75"/>
       <c r="D9" s="27" t="s">
@@ -1261,7 +1303,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="74"/>
       <c r="C10" s="73" t="s">
         <v>18</v>
@@ -1281,7 +1323,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
       <c r="D11" s="25" t="s">
@@ -1299,7 +1341,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
       <c r="D12" s="25" t="s">
@@ -1317,7 +1359,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
       <c r="D13" s="25" t="s">
@@ -1335,7 +1377,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
       <c r="D14" s="25" t="s">
@@ -1353,7 +1395,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
       <c r="D15" s="27" t="s">
@@ -1371,9 +1413,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="74"/>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="76" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -1391,7 +1433,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
       <c r="D17" s="25" t="s">
@@ -1409,7 +1451,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="25" t="s">
@@ -1427,7 +1469,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="25" t="s">
@@ -1445,7 +1487,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="25" t="s">
@@ -1463,7 +1505,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="25" t="s">
@@ -1481,7 +1523,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
       <c r="D22" s="27" t="s">
@@ -1521,11 +1563,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="91">
         <v>44172</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="85" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -1543,9 +1585,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="18" t="s">
         <v>84</v>
       </c>
@@ -1561,9 +1603,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="18" t="s">
         <v>81</v>
       </c>
@@ -1579,9 +1621,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="86"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="18" t="s">
         <v>82</v>
       </c>
@@ -1597,9 +1639,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="84" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="85" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
@@ -1617,9 +1659,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="18" t="s">
         <v>84</v>
       </c>
@@ -1635,9 +1677,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="18" t="s">
         <v>81</v>
       </c>
@@ -1653,9 +1695,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="86"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="18" t="s">
         <v>82</v>
       </c>
@@ -1715,12 +1757,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="66">
         <f>SUM(E7:E33)</f>
         <v>52</v>
@@ -1733,11 +1775,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="A7:A22"/>
-    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A3:G3"/>
@@ -1746,6 +1783,11 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="A7:A22"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="B24:B31"/>
@@ -1778,13 +1820,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -1818,15 +1860,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -1838,47 +1880,47 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="108" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="104">
+      <c r="A7" s="107">
         <v>44141</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="98" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -1896,9 +1938,9 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="61" t="s">
         <v>33</v>
       </c>
@@ -1914,9 +1956,9 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="102"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="61" t="s">
         <v>34</v>
       </c>
@@ -1932,9 +1974,9 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="102"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="61" t="s">
         <v>35</v>
       </c>
@@ -1950,9 +1992,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="95"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="58" t="s">
         <v>36</v>
       </c>
@@ -1968,8 +2010,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="44" t="s">
         <v>37</v>
       </c>
@@ -1988,9 +2030,9 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="94" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="98" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -2008,9 +2050,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="58" t="s">
         <v>33</v>
       </c>
@@ -2026,9 +2068,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="94" t="s">
+      <c r="A15" s="107"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -2046,9 +2088,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="61" t="s">
         <v>33</v>
       </c>
@@ -2064,9 +2106,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="61" t="s">
         <v>34</v>
       </c>
@@ -2082,9 +2124,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
@@ -2100,9 +2142,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="61" t="s">
         <v>42</v>
       </c>
@@ -2118,9 +2160,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="95"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="58" t="s">
         <v>36</v>
       </c>
@@ -2136,8 +2178,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="44" t="s">
         <v>40</v>
       </c>
@@ -2156,9 +2198,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="94" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="55" t="s">
@@ -2176,9 +2218,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="95"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="58" t="s">
         <v>33</v>
       </c>
@@ -2194,9 +2236,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="94" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="55" t="s">
@@ -2214,9 +2256,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="61" t="s">
         <v>45</v>
       </c>
@@ -2232,9 +2274,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="61" t="s">
         <v>46</v>
       </c>
@@ -2250,9 +2292,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="102"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="61" t="s">
         <v>47</v>
       </c>
@@ -2268,9 +2310,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="58" t="s">
         <v>48</v>
       </c>
@@ -2286,11 +2328,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="96">
+      <c r="A29" s="100">
         <v>44163</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="94" t="s">
+      <c r="B29" s="102"/>
+      <c r="C29" s="98" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2308,9 +2350,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="95"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="58" t="s">
         <v>33</v>
       </c>
@@ -2326,12 +2368,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="53">
         <f>SUM(E7:E30)</f>
         <v>28</v>
@@ -2344,11 +2386,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -2363,6 +2400,11 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2371,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,38 +2459,87 @@
       <c r="G3" s="110"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="108" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2467,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2486,13 +2577,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="35"/>
@@ -2526,15 +2617,15 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="64"/>
@@ -2546,38 +2637,38 @@
       <c r="P3" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="108" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="115">
@@ -2586,7 +2677,7 @@
       <c r="B7" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="98" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -2606,7 +2697,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="113"/>
-      <c r="C8" s="95"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="58" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2715,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
       <c r="B9" s="113"/>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="98" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2644,7 +2735,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="116"/>
       <c r="B10" s="113"/>
-      <c r="C10" s="95"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="58" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +2773,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="113"/>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="98" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="55" t="s">
@@ -2702,7 +2793,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
       <c r="B13" s="113"/>
-      <c r="C13" s="102"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="61" t="s">
         <v>57</v>
       </c>
@@ -2720,7 +2811,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="116"/>
       <c r="B14" s="113"/>
-      <c r="C14" s="95"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="58" t="s">
         <v>58</v>
       </c>
@@ -2758,7 +2849,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="116"/>
       <c r="B16" s="113"/>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="98" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="55" t="s">
@@ -2778,7 +2869,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="116"/>
       <c r="B17" s="113"/>
-      <c r="C17" s="102"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="61" t="s">
         <v>57</v>
       </c>
@@ -2796,7 +2887,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
       <c r="B18" s="113"/>
-      <c r="C18" s="102"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="61" t="s">
         <v>58</v>
       </c>
@@ -2814,7 +2905,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="116"/>
       <c r="B19" s="113"/>
-      <c r="C19" s="95"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="58" t="s">
         <v>62</v>
       </c>
@@ -2832,7 +2923,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
       <c r="B20" s="113"/>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="98" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="55" t="s">
@@ -2852,7 +2943,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="116"/>
       <c r="B21" s="113"/>
-      <c r="C21" s="95"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="58" t="s">
         <v>58</v>
       </c>
@@ -2890,7 +2981,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="113"/>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="98" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -2910,7 +3001,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="116"/>
       <c r="B24" s="113"/>
-      <c r="C24" s="102"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="61" t="s">
         <v>68</v>
       </c>
@@ -2928,7 +3019,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="116"/>
       <c r="B25" s="113"/>
-      <c r="C25" s="102"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="61" t="s">
         <v>70</v>
       </c>
@@ -2946,7 +3037,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="113"/>
-      <c r="C26" s="102"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
@@ -2964,7 +3055,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="113"/>
-      <c r="C27" s="95"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="58" t="s">
         <v>72</v>
       </c>
@@ -2982,7 +3073,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
       <c r="B28" s="113"/>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="98" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="55" t="s">
@@ -3002,7 +3093,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
       <c r="B29" s="113"/>
-      <c r="C29" s="102"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
@@ -3020,7 +3111,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
       <c r="B30" s="113"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="58" t="s">
         <v>57</v>
       </c>
@@ -3038,7 +3129,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
       <c r="B31" s="113"/>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="98" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="55" t="s">
@@ -3058,7 +3149,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
       <c r="B32" s="113"/>
-      <c r="C32" s="102"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="61" t="s">
         <v>57</v>
       </c>
@@ -3076,7 +3167,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
       <c r="B33" s="113"/>
-      <c r="C33" s="95"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="58" t="s">
         <v>58</v>
       </c>
@@ -3157,14 +3248,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="115">
-        <v>44538</v>
+        <v>44173</v>
       </c>
       <c r="B37" s="112"/>
       <c r="C37" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="45">
-        <v>1</v>
+      <c r="D37" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="E37" s="45">
         <v>2</v>
@@ -3176,8 +3267,8 @@
       <c r="A38" s="116"/>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
-      <c r="D38" s="45">
-        <v>2</v>
+      <c r="D38" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="E38" s="45">
         <v>2</v>
@@ -3189,8 +3280,8 @@
       <c r="A39" s="116"/>
       <c r="B39" s="113"/>
       <c r="C39" s="114"/>
-      <c r="D39" s="45">
-        <v>3</v>
+      <c r="D39" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="E39" s="45">
         <v>2</v>
@@ -3204,8 +3295,8 @@
       <c r="C40" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="45">
-        <v>2</v>
+      <c r="D40" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="45">
         <v>2</v>
@@ -3214,8 +3305,8 @@
       <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="114"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="44" t="s">
         <v>89</v>
       </c>
@@ -3227,69 +3318,129 @@
       <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="45">
+        <v>2</v>
+      </c>
       <c r="F42" s="46"/>
       <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="45">
+        <v>2</v>
+      </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="45">
+        <v>2</v>
+      </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="45">
+        <v>2</v>
+      </c>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="116"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="45">
+        <v>2</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="45">
+        <v>2</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
+        <v>44202</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="45">
+        <v>3</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="67">
-        <f>SUM(E7:E41)</f>
-        <v>73</v>
-      </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68">
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="67">
+        <f>SUM(E7:E48)</f>
+        <v>88</v>
+      </c>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68">
         <f>SUM(G7:G36)</f>
         <v>32707000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A46:D46"/>
+  <mergeCells count="25">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="A49:D49"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C21"/>
@@ -3301,8 +3452,16 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3311,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,38 +3545,46 @@
       <c r="P3" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="108" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="107"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
